--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Itga4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H2">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N2">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q2">
-        <v>500.501660413694</v>
+        <v>0.144513273052</v>
       </c>
       <c r="R2">
-        <v>4504.514943723247</v>
+        <v>1.300619457468</v>
       </c>
       <c r="S2">
-        <v>0.04741929247156782</v>
+        <v>0.0001398211776555379</v>
       </c>
       <c r="T2">
-        <v>0.04741929247156782</v>
+        <v>0.0001398211776555379</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H3">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q3">
-        <v>2.904256684660888</v>
+        <v>0.824899420763111</v>
       </c>
       <c r="R3">
-        <v>26.138310161948</v>
+        <v>7.424094786867999</v>
       </c>
       <c r="S3">
-        <v>0.0002751595210066011</v>
+        <v>0.0007981163669095445</v>
       </c>
       <c r="T3">
-        <v>0.0002751595210066011</v>
+        <v>0.0007981163669095445</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H4">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N4">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q4">
-        <v>26.44757907091222</v>
+        <v>14.55177373204178</v>
       </c>
       <c r="R4">
-        <v>238.02821163821</v>
+        <v>130.965963588376</v>
       </c>
       <c r="S4">
-        <v>0.002505736916221005</v>
+        <v>0.01407930287108562</v>
       </c>
       <c r="T4">
-        <v>0.002505736916221005</v>
+        <v>0.01407930287108562</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N5">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q5">
-        <v>8820.20325653309</v>
+        <v>8.966331824182001</v>
       </c>
       <c r="R5">
-        <v>79381.82930879781</v>
+        <v>80.69698641763802</v>
       </c>
       <c r="S5">
-        <v>0.8356571635237158</v>
+        <v>0.008675210577068194</v>
       </c>
       <c r="T5">
-        <v>0.8356571635237158</v>
+        <v>0.008675210577068196</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q6">
         <v>51.18091765505977</v>
@@ -818,10 +818,10 @@
         <v>460.628258895538</v>
       </c>
       <c r="S6">
-        <v>0.004849060642960667</v>
+        <v>0.04951916200421653</v>
       </c>
       <c r="T6">
-        <v>0.004849060642960667</v>
+        <v>0.04951916200421653</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N7">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q7">
-        <v>466.0784199114595</v>
+        <v>902.8653850013686</v>
       </c>
       <c r="R7">
-        <v>4194.705779203136</v>
+        <v>8125.788465012318</v>
       </c>
       <c r="S7">
-        <v>0.04415791326286477</v>
+        <v>0.8735509114784725</v>
       </c>
       <c r="T7">
-        <v>0.04415791326286476</v>
+        <v>0.8735509114784724</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H8">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N8">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q8">
-        <v>649.410162162063</v>
+        <v>0.512312623634</v>
       </c>
       <c r="R8">
-        <v>5844.691459458567</v>
+        <v>4.610813612706</v>
       </c>
       <c r="S8">
-        <v>0.06152740909614091</v>
+        <v>0.0004956787210717242</v>
       </c>
       <c r="T8">
-        <v>0.06152740909614091</v>
+        <v>0.0004956787210717242</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H9">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q9">
-        <v>3.768326768360665</v>
+        <v>2.924343055556221</v>
       </c>
       <c r="R9">
-        <v>33.91494091524599</v>
+        <v>26.319087500006</v>
       </c>
       <c r="S9">
-        <v>0.0003570245681295712</v>
+        <v>0.002829394707222059</v>
       </c>
       <c r="T9">
-        <v>0.0003570245681295712</v>
+        <v>0.002829394707222059</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H10">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N10">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q10">
-        <v>34.31622304517167</v>
+        <v>51.58735403154356</v>
       </c>
       <c r="R10">
-        <v>308.846007406545</v>
+        <v>464.2861862838921</v>
       </c>
       <c r="S10">
-        <v>0.00325123999739288</v>
+        <v>0.04991240209629835</v>
       </c>
       <c r="T10">
-        <v>0.00325123999739288</v>
+        <v>0.04991240209629835</v>
       </c>
     </row>
   </sheetData>
